--- a/results/mp/logistic/corona/confidence/84/masking-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/84/masking-0.2/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="63">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,39 +43,39 @@
     <t>crude</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
     <t>die</t>
   </si>
   <si>
     <t>drop</t>
   </si>
   <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
     <t>low</t>
   </si>
   <si>
     <t>fears</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>sc</t>
+    <t>emergency</t>
   </si>
   <si>
     <t>no</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>empty</t>
   </si>
   <si>
@@ -88,9 +88,6 @@
     <t>co</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
     <t>of</t>
   </si>
   <si>
@@ -100,61 +97,64 @@
     <t>the</t>
   </si>
   <si>
-    <t>to</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>love</t>
+    <t>great</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>hand</t>
+    <t>join</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>heroes</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
     <t>positive</t>
   </si>
   <si>
-    <t>good</t>
+    <t>gt</t>
   </si>
   <si>
     <t>won</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>safe</t>
+    <t>save</t>
   </si>
   <si>
     <t>better</t>
@@ -163,40 +163,37 @@
     <t>fresh</t>
   </si>
   <si>
-    <t>gt</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
+    <t>please</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
     <t>protect</t>
   </si>
   <si>
     <t>you</t>
+  </si>
+  <si>
+    <t>are</t>
   </si>
   <si>
     <t>and</t>
@@ -571,10 +568,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -653,16 +650,16 @@
         <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K3">
-        <v>0.9166666666666666</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L3">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -674,7 +671,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -682,28 +679,28 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8055555555555556</v>
+        <v>0.8116438356164384</v>
       </c>
       <c r="C4">
+        <v>237</v>
+      </c>
+      <c r="D4">
+        <v>237</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>55</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="D4">
-        <v>29</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>7</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K4">
         <v>0.9152542372881356</v>
@@ -732,13 +729,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8047945205479452</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="C5">
-        <v>235</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>235</v>
+        <v>29</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -750,19 +747,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K5">
-        <v>0.9130434782608695</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="L5">
-        <v>42</v>
+        <v>107</v>
       </c>
       <c r="M5">
-        <v>42</v>
+        <v>107</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -774,7 +771,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -782,13 +779,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7894736842105263</v>
+        <v>0.75</v>
       </c>
       <c r="C6">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -800,19 +797,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K6">
-        <v>0.8888888888888888</v>
+        <v>0.875</v>
       </c>
       <c r="L6">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="M6">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -824,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -832,13 +829,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7567567567567568</v>
+        <v>0.6756756756756757</v>
       </c>
       <c r="C7">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D7">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -850,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K7">
-        <v>0.875</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L7">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="M7">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -874,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -903,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K8">
         <v>0.8484848484848485</v>
@@ -932,13 +929,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5570469798657718</v>
+        <v>0.5581395348837209</v>
       </c>
       <c r="C9">
-        <v>83</v>
+        <v>288</v>
       </c>
       <c r="D9">
-        <v>83</v>
+        <v>288</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -950,19 +947,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>66</v>
+        <v>228</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K9">
-        <v>0.828125</v>
+        <v>0.8067885117493473</v>
       </c>
       <c r="L9">
-        <v>106</v>
+        <v>309</v>
       </c>
       <c r="M9">
-        <v>106</v>
+        <v>309</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -974,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>22</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -982,49 +979,49 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5490196078431373</v>
+        <v>0.5291005291005291</v>
       </c>
       <c r="C10">
+        <v>100</v>
+      </c>
+      <c r="D10">
+        <v>100</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>89</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10">
+        <v>0.8028169014084507</v>
+      </c>
+      <c r="L10">
+        <v>114</v>
+      </c>
+      <c r="M10">
+        <v>114</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>28</v>
-      </c>
-      <c r="D10">
-        <v>28</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>23</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K10">
-        <v>0.8276762402088773</v>
-      </c>
-      <c r="L10">
-        <v>317</v>
-      </c>
-      <c r="M10">
-        <v>317</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1032,13 +1029,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5406976744186046</v>
+        <v>0.5033557046979866</v>
       </c>
       <c r="C11">
-        <v>279</v>
+        <v>75</v>
       </c>
       <c r="D11">
-        <v>279</v>
+        <v>75</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1050,19 +1047,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>237</v>
+        <v>74</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K11">
-        <v>0.8055555555555556</v>
+        <v>0.796875</v>
       </c>
       <c r="L11">
-        <v>29</v>
+        <v>102</v>
       </c>
       <c r="M11">
-        <v>29</v>
+        <v>102</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1074,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1082,13 +1079,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5238095238095238</v>
+        <v>0.4901960784313725</v>
       </c>
       <c r="C12">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="D12">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1100,19 +1097,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K12">
-        <v>0.7926829268292683</v>
+        <v>0.7906976744186046</v>
       </c>
       <c r="L12">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="M12">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1124,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1132,13 +1129,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4361111111111111</v>
+        <v>0.4533333333333333</v>
       </c>
       <c r="C13">
-        <v>157</v>
+        <v>34</v>
       </c>
       <c r="D13">
-        <v>157</v>
+        <v>34</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1150,31 +1147,31 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>203</v>
+        <v>41</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K13">
-        <v>0.7906976744186046</v>
+        <v>0.7875</v>
       </c>
       <c r="L13">
+        <v>126</v>
+      </c>
+      <c r="M13">
+        <v>126</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
         <v>34</v>
-      </c>
-      <c r="M13">
-        <v>34</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1182,13 +1179,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4133333333333333</v>
+        <v>0.4055555555555556</v>
       </c>
       <c r="C14">
-        <v>31</v>
+        <v>146</v>
       </c>
       <c r="D14">
-        <v>31</v>
+        <v>146</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1200,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>44</v>
+        <v>214</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K14">
-        <v>0.7830188679245284</v>
+        <v>0.7872340425531915</v>
       </c>
       <c r="L14">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="M14">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1224,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1232,13 +1229,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.3</v>
+        <v>0.3111111111111111</v>
       </c>
       <c r="C15">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D15">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1250,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K15">
-        <v>0.7758620689655172</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L15">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="M15">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1274,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1282,13 +1279,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.257936507936508</v>
+        <v>0.2817460317460317</v>
       </c>
       <c r="C16">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D16">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1300,19 +1297,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K16">
-        <v>0.775</v>
+        <v>0.7735849056603774</v>
       </c>
       <c r="L16">
-        <v>124</v>
+        <v>82</v>
       </c>
       <c r="M16">
-        <v>124</v>
+        <v>82</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1324,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1332,13 +1329,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.1501340482573726</v>
+        <v>0.1581769436997319</v>
       </c>
       <c r="C17">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D17">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1350,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K17">
-        <v>0.7692307692307693</v>
+        <v>0.7682926829268293</v>
       </c>
       <c r="L17">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="M17">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1374,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1382,37 +1379,37 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.01419354838709678</v>
+        <v>0.01320876288659794</v>
       </c>
       <c r="C18">
+        <v>41</v>
+      </c>
+      <c r="D18">
         <v>44</v>
       </c>
-      <c r="D18">
-        <v>51</v>
-      </c>
       <c r="E18">
-        <v>0.14</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F18">
-        <v>0.86</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
       </c>
       <c r="H18">
-        <v>3056</v>
+        <v>3063</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K18">
-        <v>0.7659574468085106</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="L18">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="M18">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1424,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1432,37 +1429,37 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.01311475409836066</v>
+        <v>0.01267962806424345</v>
       </c>
       <c r="C19">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D19">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E19">
-        <v>0.22</v>
+        <v>0.3</v>
       </c>
       <c r="F19">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
       </c>
       <c r="H19">
-        <v>2107</v>
+        <v>2336</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K19">
-        <v>0.7464788732394366</v>
+        <v>0.75</v>
       </c>
       <c r="L19">
-        <v>106</v>
+        <v>30</v>
       </c>
       <c r="M19">
-        <v>106</v>
+        <v>30</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1474,7 +1471,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>36</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1482,37 +1479,37 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.0126528890763391</v>
+        <v>0.006647864625302175</v>
       </c>
       <c r="C20">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D20">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="E20">
-        <v>0.21</v>
+        <v>0.49</v>
       </c>
       <c r="F20">
-        <v>0.79</v>
+        <v>0.51</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
       </c>
       <c r="H20">
-        <v>2341</v>
+        <v>4931</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K20">
-        <v>0.7142857142857143</v>
+        <v>0.7435897435897436</v>
       </c>
       <c r="L20">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="M20">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1524,7 +1521,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1532,137 +1529,89 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.007661290322580645</v>
+        <v>0.00663544106167057</v>
       </c>
       <c r="C21">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D21">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E21">
-        <v>0.49</v>
+        <v>0.55</v>
       </c>
       <c r="F21">
-        <v>0.51</v>
+        <v>0.45</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
       </c>
       <c r="H21">
-        <v>4922</v>
+        <v>5090</v>
       </c>
       <c r="J21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K21">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="L21">
+        <v>25</v>
+      </c>
+      <c r="M21">
+        <v>25</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="J22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K22">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="L22">
+        <v>45</v>
+      </c>
+      <c r="M22">
+        <v>45</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="J23" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="K21">
-        <v>0.7083333333333334</v>
-      </c>
-      <c r="L21">
-        <v>34</v>
-      </c>
-      <c r="M21">
-        <v>34</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="A22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22">
-        <v>0.006815968841285297</v>
-      </c>
-      <c r="C22">
-        <v>35</v>
-      </c>
-      <c r="D22">
-        <v>65</v>
-      </c>
-      <c r="E22">
-        <v>0.46</v>
-      </c>
-      <c r="F22">
-        <v>0.54</v>
-      </c>
-      <c r="G22" t="b">
-        <v>1</v>
-      </c>
-      <c r="H22">
-        <v>5100</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K22">
-        <v>0.7</v>
-      </c>
-      <c r="L22">
-        <v>28</v>
-      </c>
-      <c r="M22">
-        <v>28</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="A23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23">
-        <v>0.006277609858172518</v>
-      </c>
-      <c r="C23">
-        <v>27</v>
-      </c>
-      <c r="D23">
-        <v>54</v>
-      </c>
-      <c r="E23">
-        <v>0.5</v>
-      </c>
-      <c r="F23">
-        <v>0.5</v>
-      </c>
-      <c r="G23" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23">
-        <v>4274</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="K23">
-        <v>0.6617647058823529</v>
+        <v>0.6875</v>
       </c>
       <c r="L23">
-        <v>225</v>
+        <v>33</v>
       </c>
       <c r="M23">
-        <v>225</v>
+        <v>33</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1674,21 +1623,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>115</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="J24" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K24">
-        <v>0.6382978723404256</v>
+        <v>0.6411764705882353</v>
       </c>
       <c r="L24">
-        <v>60</v>
+        <v>218</v>
       </c>
       <c r="M24">
-        <v>60</v>
+        <v>218</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1700,21 +1649,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>34</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K25">
-        <v>0.5846153846153846</v>
+        <v>0.6234309623430963</v>
       </c>
       <c r="L25">
-        <v>38</v>
+        <v>149</v>
       </c>
       <c r="M25">
-        <v>38</v>
+        <v>149</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1726,21 +1675,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>27</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K26">
-        <v>0.5728813559322034</v>
+        <v>0.6063829787234043</v>
       </c>
       <c r="L26">
-        <v>169</v>
+        <v>57</v>
       </c>
       <c r="M26">
-        <v>169</v>
+        <v>57</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1752,73 +1701,73 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>126</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K27">
-        <v>0.5648535564853556</v>
+        <v>0.5816326530612245</v>
       </c>
       <c r="L27">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="M27">
-        <v>135</v>
+        <v>172</v>
       </c>
       <c r="N27">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27">
-        <v>104</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K28">
-        <v>0.5428571428571428</v>
+        <v>0.5730337078651685</v>
       </c>
       <c r="L28">
+        <v>51</v>
+      </c>
+      <c r="M28">
+        <v>51</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
         <v>38</v>
-      </c>
-      <c r="M28">
-        <v>38</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K29">
-        <v>0.54</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L29">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M29">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1830,21 +1779,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K30">
-        <v>0.5280898876404494</v>
+        <v>0.5538461538461539</v>
       </c>
       <c r="L30">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="M30">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1856,21 +1805,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K31">
-        <v>0.3974358974358974</v>
+        <v>0.5285714285714286</v>
       </c>
       <c r="L31">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="M31">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1882,21 +1831,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>47</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K32">
-        <v>0.3835616438356164</v>
+        <v>0.3561643835616438</v>
       </c>
       <c r="L32">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M32">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1908,111 +1857,111 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K33">
-        <v>0.03347280334728033</v>
+        <v>0.03341687552213868</v>
       </c>
       <c r="L33">
         <v>40</v>
       </c>
       <c r="M33">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N33">
-        <v>0.89</v>
+        <v>0.93</v>
       </c>
       <c r="O33">
-        <v>0.11</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P33" t="b">
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>1155</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K34">
-        <v>0.0131578947368421</v>
+        <v>0.02036021926389977</v>
       </c>
       <c r="L34">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="M34">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="N34">
-        <v>0.73</v>
+        <v>0.68</v>
       </c>
       <c r="O34">
-        <v>0.27</v>
+        <v>0.32</v>
       </c>
       <c r="P34" t="b">
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>2625</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K35">
-        <v>0.01254705144291092</v>
+        <v>0.01241068070703272</v>
       </c>
       <c r="L35">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M35">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="N35">
-        <v>0.91</v>
+        <v>0.7</v>
       </c>
       <c r="O35">
-        <v>0.08999999999999997</v>
+        <v>0.3</v>
       </c>
       <c r="P35" t="b">
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>2361</v>
+        <v>2626</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K36">
-        <v>0.01097522734399498</v>
+        <v>0.01045587620242576</v>
       </c>
       <c r="L36">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="M36">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="N36">
-        <v>0.74</v>
+        <v>0.89</v>
       </c>
       <c r="O36">
-        <v>0.26</v>
+        <v>0.11</v>
       </c>
       <c r="P36" t="b">
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>3154</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -2020,77 +1969,77 @@
         <v>26</v>
       </c>
       <c r="K37">
-        <v>0.007260992335619202</v>
+        <v>0.007990645098421361</v>
       </c>
       <c r="L37">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M37">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N37">
-        <v>0.49</v>
+        <v>0.55</v>
       </c>
       <c r="O37">
-        <v>0.51</v>
+        <v>0.45</v>
       </c>
       <c r="P37" t="b">
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>4922</v>
+        <v>5090</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="K38">
-        <v>0.006277609858172518</v>
+        <v>0.007851758793969849</v>
       </c>
       <c r="L38">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M38">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="N38">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="O38">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="P38" t="b">
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>4274</v>
+        <v>3159</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K39">
-        <v>0.005847953216374269</v>
+        <v>0.006447713076768084</v>
       </c>
       <c r="L39">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M39">
         <v>65</v>
       </c>
       <c r="N39">
-        <v>0.46</v>
+        <v>0.49</v>
       </c>
       <c r="O39">
-        <v>0.54</v>
+        <v>0.51</v>
       </c>
       <c r="P39" t="b">
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>5100</v>
+        <v>4931</v>
       </c>
     </row>
   </sheetData>
